--- a/data/programs.xlsx
+++ b/data/programs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seung\chatbot_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9018CD-EA9D-4AB8-9FCC-588E7562BDF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E21724-6470-420F-A277-77400C1FAD73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/data/programs.xlsx
+++ b/data/programs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seung\chatbot_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E21724-6470-420F-A277-77400C1FAD73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E229323-37F6-488A-ABBA-495B581600A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -581,7 +581,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
